--- a/outputFile/rhel3.xlsx
+++ b/outputFile/rhel3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,17 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>rhel_only</t>
+          <t>rhel_v3</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>rhel_a3</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>rhel_j3</t>
         </is>
       </c>
     </row>
@@ -446,7 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[[0.5454545454545455, 15], [0.43749999999999994, 8], [0.46153846153846156, 3]]</t>
+          <t>[0.3888888888888889, 12]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[0.5714285714285715, 8]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[0.30303030303030304, 11]</t>
         </is>
       </c>
     </row>
@@ -456,7 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[[0.45161290322580644, 7], [0.3478260869565218, 2], [0.2, 1]]</t>
+          <t>[0.2727272727272727, 2]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[0.5714285714285714, 3]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[0.16666666666666666, 5]</t>
         </is>
       </c>
     </row>
@@ -466,7 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[[0.38095238095238093, 0], [0.3, 0], [0.1111111111111111, 0]]</t>
+          <t>[0.10526315789473684, 1]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[0.38095238095238093, 0]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[0.21052631578947367, 0]</t>
         </is>
       </c>
     </row>
